--- a/medicine/Enfance/Franz_Bartelt/Franz_Bartelt.xlsx
+++ b/medicine/Enfance/Franz_Bartelt/Franz_Bartelt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Franz Bartelt, né le 7 octobre 1949 aux Andelys, dans l’Eure[1], est un romancier, nouvelliste, poète, dramaturge et feuilletoniste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Franz Bartelt, né le 7 octobre 1949 aux Andelys, dans l’Eure, est un romancier, nouvelliste, poète, dramaturge et feuilletoniste français.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Franz Bartelt est le fils d'un ébéniste d'origine poméranienne (frontière germano-polonaise) et d'une Normande[2]. La famille Bartelt s'installe dans l'Eure, où en 1949 naît Franz Bartelt qui arrive dans les Ardennes à l’âge de quatre ans et s'installe d'abord à Boulzicourt, puis à Charleville-Mézières, la région d'Arthur Rimbaud, un endroit prédestiné pour le jeune Franz qui apprend à lire dans les romans policiers que dévore sa mère et commence à écrire à l'âge de treize ans. Un an plus tard, il quitte l'école et gagne sa vie en enchaînant les petits boulots. À dix-neuf ans, il entre dans une usine de transformation de papier à Givet, un autre lieu symbolique pour l'écrivain qu'il est en passe de devenir.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Franz Bartelt est le fils d'un ébéniste d'origine poméranienne (frontière germano-polonaise) et d'une Normande. La famille Bartelt s'installe dans l'Eure, où en 1949 naît Franz Bartelt qui arrive dans les Ardennes à l’âge de quatre ans et s'installe d'abord à Boulzicourt, puis à Charleville-Mézières, la région d'Arthur Rimbaud, un endroit prédestiné pour le jeune Franz qui apprend à lire dans les romans policiers que dévore sa mère et commence à écrire à l'âge de treize ans. Un an plus tard, il quitte l'école et gagne sa vie en enchaînant les petits boulots. À dix-neuf ans, il entre dans une usine de transformation de papier à Givet, un autre lieu symbolique pour l'écrivain qu'il est en passe de devenir.
 En 1980, il s'installe à Nouzonville. Pendant cinq ans de labeur, au rythme des trois-huit, il aligne deux volumes par an sans se soucier de se faire publier. À partir de 1985, il fait de l'écriture son unique moyen de subsistance depuis sa résidence dans les Ardennes.
 À partir de 1995, il connaît la consécration avec la publication de ses romans, bien reçus par la critique et dont certains sont sélectionnés pour des prix littéraires : Les Fiancés du paradis (1995), La Chasse au grand singe (1996), Le Costume (1998), Les Bottes rouges (2000), Le Grand Bercail (2002) et Terrine Rimbaud (2004).
 « Je suis d'un pays construit par le silence. Et qui assemble, vallée contre vallée, d'autres pays vieux et lointains.
@@ -553,8 +567,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Les Fiancés du paradis, Gallimard, 1995 ; réédition, Labor, 2006
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les Fiancés du paradis, Gallimard, 1995 ; réédition, Labor, 2006
 La Chasse au grand singe, Gallimard, 1996
 Le Costume, Gallimard, 1998
 Simple, Mercure de France, 1999 ; réédition, Le Cercle, coll. « Cercle poche » no 56, 2004
@@ -581,27 +600,231 @@
 Ah, les braves gens !, Paris, Le Seuil, coll. « Cadre Noir », 2019, 279 p. (ISBN 978-2-02-143220-6)
 Un flic bien trop honnête, Éditions du Seuil, 2021 ; réédition Points Policier, 2023.
 Of course, L'Arbre vengeur, 2021 (nouvelle édition de Nadada)
-Singeries, L'Arbre vengeur, 2024
-Recueils de nouvelles
-Histoires d'eaux, Le Castor astral, coll. « Escales du Nord », 1998 (recueil collectif)
+Singeries, L'Arbre vengeur, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Franz_Bartelt</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Franz_Bartelt</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Histoires d'eaux, Le Castor astral, coll. « Escales du Nord », 1998 (recueil collectif)
 Le Bar des habitudes, Gallimard, 2005 ; réédition, Gallimard, coll. « Folio » no 4626, 2007 Teddy, suivi de Blutch, éditions 6 pieds sous terre, coll. « Liber Niger », 2005
 Mots pour maux, Gallimard, 2008 (recueil collectif)
 La Mort d'Edgar, Gallimard, 2010 ; réédition partielle sous le titre Une sainte fille et autres nouvelles, Gallimard, coll. « Folio 2euros » no 5415, 2012
 La Rencontre avec l'autre, Gallimard, coll. « Folio collège » no 20, 2017 (recueil collectif)
 Comment vivre sans lui ?, Gallimard, 2016
 Souvenirs du théâtre des opérations (15 monologues), L'Arbre vengeur, 2022.
-Je ne suis pas malheureux,  Le Dilettante, 2023  (ISBN 9791030800869).
-Poésie
-Décombres, le Givre de l'éclair, 1997
-Presque rien du monde, Arch'Libris, 2013 illustrations de Jean Morette
-Chroniques
-Les Marcheurs, Finn, 1998
-Théâtre
-Les Biscuits roses, éditions La Fontaine, 2007
-Ouvrages de littérature d'enfance et de jeunesse
-Des parents pour quoi faire?,  illustrations de Aurélie Blard-Quintard, Bayard poche, coll. « J'aime lire plus : humour » no 21, 2011
-Publications concernant les Ardennes
-D'une Ardenne et de l'autre Quorum, 1997
+Je ne suis pas malheureux,  Le Dilettante, 2023  (ISBN 9791030800869).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Franz_Bartelt</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Franz_Bartelt</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Décombres, le Givre de l'éclair, 1997
+Presque rien du monde, Arch'Libris, 2013 illustrations de Jean Morette</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Franz_Bartelt</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Franz_Bartelt</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chroniques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les Marcheurs, Finn, 1998</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Franz_Bartelt</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Franz_Bartelt</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les Biscuits roses, éditions La Fontaine, 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Franz_Bartelt</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Franz_Bartelt</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Des parents pour quoi faire?,  illustrations de Aurélie Blard-Quintard, Bayard poche, coll. « J'aime lire plus : humour » no 21, 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Franz_Bartelt</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Franz_Bartelt</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Publications concernant les Ardennes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>D'une Ardenne et de l'autre Quorum, 1997
 Le Cheval ardennais, photographies de Jean-Marie Lecomte, Castor &amp; Pollux, 1999
 Aux pays d'André Dhôtel dessins de Daniel Casanave, éd. Traverses, 2000
 L’Ardennais avec Jean-Marie Lecomte, Castor et Pollux, 2000
@@ -610,9 +833,43 @@
 Massacre en Ardennes, en collaboration avec Alain Bertrand, Labor, 2006
 Marionnettes en Ardennes, en collaboration avec Emmanuelle Ebel et Alain Recoing ; photographies d'Angel Garcia, Christophe Loiseau et Jean-Marie Lecomte, éditions Noires Terres, 2009
 Argonne, photographies de Jean-Marie Lecomte, éditions Noires Terres, 2010
-Adaptation pour la radio du roman Léon Chatry, instituteur de Jules Leroux[3], diffusé sur France Culture sous la forme d'un feuilleton de six épisodes en 1991
-Autres publications
-Suite à Verlaine, photographies de Jean-Marie Lecomte, Finn, 1999
+Adaptation pour la radio du roman Léon Chatry, instituteur de Jules Leroux, diffusé sur France Culture sous la forme d'un feuilleton de six épisodes en 1991</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Franz_Bartelt</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Franz_Bartelt</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Suite à Verlaine, photographies de Jean-Marie Lecomte, Finn, 1999
 Nulle part, mais en Irlande, Le Temps qu'il fait, 2002
 Pleut-il ?, Gallimard, 2007
 Petit éloge de la vie de tous les jours, Gallimard, coll. « Folio 2euros » no 4954, 2009
@@ -621,67 +878,71 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Franz_Bartelt</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Franz_Bartelt</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Franz_Bartelt</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Franz_Bartelt</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix de l'Humour noir 2001 pour Les Bottes rouges[4]
-Prix Goncourt de la nouvelle 2006 pour Le Bar des habitudes[5]
-Prix des Hussards 2014 pour Le Fémur de Rimbaud[2]
-Prix Mystère de la critique 2018 pour Hôtel du Grand Cerf [6],[7]
-Trophée 813 du meilleur roman francophone 2018 pour Hôtel du Grand Cerf[8]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Franz_Bartelt</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Franz_Bartelt</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Prix de l'Humour noir 2001 pour Les Bottes rouges
+Prix Goncourt de la nouvelle 2006 pour Le Bar des habitudes
+Prix des Hussards 2014 pour Le Fémur de Rimbaud
+Prix Mystère de la critique 2018 pour Hôtel du Grand Cerf ,
+Trophée 813 du meilleur roman francophone 2018 pour Hôtel du Grand Cerf</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Franz_Bartelt</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Franz_Bartelt</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Adaptation cinématographique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2017 : La Dormeuse Duval, film français réalisé par Manuel Sanchez, librement inspiré du roman Les Bottes rouges de Franz Bartelt[9].</t>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2017 : La Dormeuse Duval, film français réalisé par Manuel Sanchez, librement inspiré du roman Les Bottes rouges de Franz Bartelt.</t>
         </is>
       </c>
     </row>
